--- a/Code/Results/Cases/Case_5_106/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_106/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.32601181885289</v>
+        <v>18.89028610029903</v>
       </c>
       <c r="C2">
-        <v>7.494798080595698</v>
+        <v>6.345714281256337</v>
       </c>
       <c r="D2">
-        <v>2.016457401668191</v>
+        <v>4.378109198514716</v>
       </c>
       <c r="E2">
-        <v>5.8465318994186</v>
+        <v>10.4293559780028</v>
       </c>
       <c r="F2">
-        <v>36.47768740746924</v>
+        <v>51.6151704710622</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>25.37879626966215</v>
+        <v>37.34093666912207</v>
       </c>
       <c r="J2">
-        <v>5.921609186548712</v>
+        <v>9.982248629945566</v>
       </c>
       <c r="K2">
-        <v>13.15234493898957</v>
+        <v>16.93002746922939</v>
       </c>
       <c r="L2">
-        <v>6.910634731028832</v>
+        <v>11.80697136171512</v>
       </c>
       <c r="M2">
-        <v>11.45660717750065</v>
+        <v>18.258407811372</v>
       </c>
       <c r="N2">
-        <v>17.15658937652178</v>
+        <v>25.60714598775363</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.58445236598792</v>
+        <v>18.79215134195066</v>
       </c>
       <c r="C3">
-        <v>6.983031541482375</v>
+        <v>6.219701808648395</v>
       </c>
       <c r="D3">
-        <v>1.962600194154989</v>
+        <v>4.37883125161381</v>
       </c>
       <c r="E3">
-        <v>5.856759027075172</v>
+        <v>10.44275322461274</v>
       </c>
       <c r="F3">
-        <v>36.06706732142047</v>
+        <v>51.64967152507997</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>25.30410439286754</v>
+        <v>37.39697471182208</v>
       </c>
       <c r="J3">
-        <v>5.955289557294687</v>
+        <v>9.994377578097199</v>
       </c>
       <c r="K3">
-        <v>12.57376094379847</v>
+        <v>16.86433294254147</v>
       </c>
       <c r="L3">
-        <v>6.864775308091013</v>
+        <v>11.8228106336086</v>
       </c>
       <c r="M3">
-        <v>11.21468864199331</v>
+        <v>18.26322245136709</v>
       </c>
       <c r="N3">
-        <v>17.33288428422409</v>
+        <v>25.66099979129025</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.11877072326247</v>
+        <v>18.73593723290198</v>
       </c>
       <c r="C4">
-        <v>6.683909527894985</v>
+        <v>6.14299805608556</v>
       </c>
       <c r="D4">
-        <v>1.929380144655048</v>
+        <v>4.379658938110845</v>
       </c>
       <c r="E4">
-        <v>5.864233513176491</v>
+        <v>10.45162027778671</v>
       </c>
       <c r="F4">
-        <v>35.83549896800851</v>
+        <v>51.67953640869833</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>25.27203199082334</v>
+        <v>37.43669907214399</v>
       </c>
       <c r="J4">
-        <v>5.976662159995908</v>
+        <v>10.00223420293586</v>
       </c>
       <c r="K4">
-        <v>12.21292971599427</v>
+        <v>16.82754616970421</v>
       </c>
       <c r="L4">
-        <v>6.839294960535403</v>
+        <v>11.83390621630253</v>
       </c>
       <c r="M4">
-        <v>11.06942122115047</v>
+        <v>18.26899284731115</v>
       </c>
       <c r="N4">
-        <v>17.44521684167058</v>
+        <v>25.6959881038659</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.9266508581722</v>
+        <v>18.71406519095668</v>
       </c>
       <c r="C5">
-        <v>6.559324391828011</v>
+        <v>6.111956571874271</v>
       </c>
       <c r="D5">
-        <v>1.915818308307068</v>
+        <v>4.380093312408247</v>
       </c>
       <c r="E5">
-        <v>5.86757680422505</v>
+        <v>10.45539529493567</v>
       </c>
       <c r="F5">
-        <v>35.74621680474117</v>
+        <v>51.69388899746383</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>25.26232009304885</v>
+        <v>37.45422327083315</v>
       </c>
       <c r="J5">
-        <v>5.98554926195504</v>
+        <v>10.00553910023714</v>
       </c>
       <c r="K5">
-        <v>12.06469193920747</v>
+        <v>16.81345958079614</v>
       </c>
       <c r="L5">
-        <v>6.829578827084934</v>
+        <v>11.83877274431747</v>
       </c>
       <c r="M5">
-        <v>11.0111020657278</v>
+        <v>18.27205337791766</v>
       </c>
       <c r="N5">
-        <v>17.4920164922308</v>
+        <v>25.71073014396532</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.89461575940088</v>
+        <v>18.71049644733641</v>
       </c>
       <c r="C6">
-        <v>6.538477338119286</v>
+        <v>6.106816602165165</v>
       </c>
       <c r="D6">
-        <v>1.913565326439872</v>
+        <v>4.380171316279412</v>
       </c>
       <c r="E6">
-        <v>5.868149828457792</v>
+        <v>10.45603190733881</v>
       </c>
       <c r="F6">
-        <v>35.73169598115707</v>
+        <v>51.69640401798777</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>25.26090705267766</v>
+        <v>37.45721382894674</v>
       </c>
       <c r="J6">
-        <v>5.987035781459942</v>
+        <v>10.00609412166712</v>
       </c>
       <c r="K6">
-        <v>12.04001150378084</v>
+        <v>16.81117545139066</v>
       </c>
       <c r="L6">
-        <v>6.828005587710216</v>
+        <v>11.8396016763351</v>
       </c>
       <c r="M6">
-        <v>11.0014728987332</v>
+        <v>18.27260443792619</v>
       </c>
       <c r="N6">
-        <v>17.49984923297475</v>
+        <v>25.71320730430454</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.11618887948111</v>
+        <v>18.73563804088588</v>
       </c>
       <c r="C7">
-        <v>6.682240104217954</v>
+        <v>6.142578482080134</v>
       </c>
       <c r="D7">
-        <v>1.929197324758851</v>
+        <v>4.379664402555584</v>
       </c>
       <c r="E7">
-        <v>5.864277401871528</v>
+        <v>10.45167053403384</v>
       </c>
       <c r="F7">
-        <v>35.83427441122859</v>
+        <v>51.67972113749506</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>25.27188756122294</v>
+        <v>37.43693000055282</v>
       </c>
       <c r="J7">
-        <v>5.976781291090998</v>
+        <v>10.00227835543138</v>
       </c>
       <c r="K7">
-        <v>12.21093507924044</v>
+        <v>16.82735251690923</v>
       </c>
       <c r="L7">
-        <v>6.839161231768395</v>
+        <v>11.83397045059724</v>
       </c>
       <c r="M7">
-        <v>11.06863107801509</v>
+        <v>18.26903125011816</v>
       </c>
       <c r="N7">
-        <v>17.44584386003714</v>
+        <v>25.69618495942849</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.07261274361757</v>
+        <v>18.85562267614436</v>
       </c>
       <c r="C8">
-        <v>7.314858302300903</v>
+        <v>6.302155016003608</v>
       </c>
       <c r="D8">
-        <v>1.997926697145944</v>
+        <v>4.378278657951051</v>
       </c>
       <c r="E8">
-        <v>5.8498082603893</v>
+        <v>10.43384253889242</v>
       </c>
       <c r="F8">
-        <v>36.33179103279664</v>
+        <v>51.62526453038225</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>25.3501147110156</v>
+        <v>37.35915468090465</v>
       </c>
       <c r="J8">
-        <v>5.933080502247426</v>
+        <v>9.986345907708712</v>
       </c>
       <c r="K8">
-        <v>12.95412227699606</v>
+        <v>16.906646528625</v>
       </c>
       <c r="L8">
-        <v>6.894263259462084</v>
+        <v>11.81214862646497</v>
       </c>
       <c r="M8">
-        <v>11.37254811131546</v>
+        <v>18.2594847135892</v>
       </c>
       <c r="N8">
-        <v>17.21652460138523</v>
+        <v>25.62531634961661</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.85681451347388</v>
+        <v>19.12205066372562</v>
       </c>
       <c r="C9">
-        <v>8.549927820350971</v>
+        <v>6.61831654004658</v>
       </c>
       <c r="D9">
-        <v>2.130974335858172</v>
+        <v>4.378591483282995</v>
       </c>
       <c r="E9">
-        <v>5.831067325988064</v>
+        <v>10.4039503287904</v>
       </c>
       <c r="F9">
-        <v>37.47397581733055</v>
+        <v>51.58735985544737</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>25.61785760101433</v>
+        <v>37.24885406759974</v>
       </c>
       <c r="J9">
-        <v>5.852717341888196</v>
+        <v>9.958336656971497</v>
       </c>
       <c r="K9">
-        <v>14.35961474739366</v>
+        <v>17.0897481350354</v>
       </c>
       <c r="L9">
-        <v>7.023810817427881</v>
+        <v>11.78020842412788</v>
       </c>
       <c r="M9">
-        <v>11.99208052871543</v>
+        <v>18.26302487900165</v>
       </c>
       <c r="N9">
-        <v>16.7995223979514</v>
+        <v>25.50155787286486</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.10244967490387</v>
+        <v>19.33544772260257</v>
       </c>
       <c r="C10">
-        <v>9.379053276502685</v>
+        <v>6.849874373355082</v>
       </c>
       <c r="D10">
-        <v>2.22708170266388</v>
+        <v>4.380642648630129</v>
       </c>
       <c r="E10">
-        <v>5.823399418530764</v>
+        <v>10.38505352178071</v>
       </c>
       <c r="F10">
-        <v>38.41914526807162</v>
+        <v>51.60148158303893</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>25.89111663851718</v>
+        <v>37.1935892917588</v>
       </c>
       <c r="J10">
-        <v>5.796686340010419</v>
+        <v>9.939710114260906</v>
       </c>
       <c r="K10">
-        <v>15.352367540909</v>
+        <v>17.24028403889941</v>
       </c>
       <c r="L10">
-        <v>7.132417350746204</v>
+        <v>11.76333084699563</v>
       </c>
       <c r="M10">
-        <v>12.45856236310785</v>
+        <v>18.27909436816203</v>
       </c>
       <c r="N10">
-        <v>16.51357148100018</v>
+        <v>25.41985938350777</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.65364215235971</v>
+        <v>19.43605230865415</v>
       </c>
       <c r="C11">
-        <v>9.739965879062211</v>
+        <v>6.954518858086259</v>
       </c>
       <c r="D11">
-        <v>2.270359027850565</v>
+        <v>4.381965514925262</v>
       </c>
       <c r="E11">
-        <v>5.821291816815716</v>
+        <v>10.37711716149404</v>
       </c>
       <c r="F11">
-        <v>38.87305471380405</v>
+        <v>51.61700064356369</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>26.03355057798843</v>
+        <v>37.1740489406305</v>
       </c>
       <c r="J11">
-        <v>5.77179379537122</v>
+        <v>9.931656033431729</v>
       </c>
       <c r="K11">
-        <v>15.79414117335165</v>
+        <v>17.31204920798101</v>
       </c>
       <c r="L11">
-        <v>7.184807885753005</v>
+        <v>11.75707723805251</v>
       </c>
       <c r="M11">
-        <v>12.67266154160798</v>
+        <v>18.2893028902167</v>
       </c>
       <c r="N11">
-        <v>16.38807423199536</v>
+        <v>25.38468607534728</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.86007226392335</v>
+        <v>19.47462864632362</v>
       </c>
       <c r="C12">
-        <v>9.874360681073263</v>
+        <v>6.994003238533258</v>
       </c>
       <c r="D12">
-        <v>2.286678624488012</v>
+        <v>4.382521985479924</v>
       </c>
       <c r="E12">
-        <v>5.820697382182954</v>
+        <v>10.37420634434596</v>
       </c>
       <c r="F12">
-        <v>39.04845544777707</v>
+        <v>51.62418216077611</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>26.09021900583214</v>
+        <v>37.1674547736263</v>
       </c>
       <c r="J12">
-        <v>5.762448405905991</v>
+        <v>9.928666127576248</v>
       </c>
       <c r="K12">
-        <v>15.9599475895694</v>
+        <v>17.33967956459617</v>
       </c>
       <c r="L12">
-        <v>7.205081340063598</v>
+        <v>11.75491335339758</v>
       </c>
       <c r="M12">
-        <v>12.7539663992837</v>
+        <v>18.29358269226974</v>
       </c>
       <c r="N12">
-        <v>16.34122826595357</v>
+        <v>25.37165256437991</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.81571675441123</v>
+        <v>19.46629966647536</v>
       </c>
       <c r="C13">
-        <v>9.84551647065838</v>
+        <v>6.985506550202476</v>
       </c>
       <c r="D13">
-        <v>2.283167014762187</v>
+        <v>4.382399678309266</v>
       </c>
       <c r="E13">
-        <v>5.820816259050086</v>
+        <v>10.37482904358711</v>
       </c>
       <c r="F13">
-        <v>39.01052223881901</v>
+        <v>51.622577518626</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>26.07789092032378</v>
+        <v>37.16883912852362</v>
       </c>
       <c r="J13">
-        <v>5.764457586742814</v>
+        <v>9.929307393299334</v>
       </c>
       <c r="K13">
-        <v>15.92430505819169</v>
+        <v>17.33370895644383</v>
       </c>
       <c r="L13">
-        <v>7.200695688513275</v>
+        <v>11.75537031116328</v>
       </c>
       <c r="M13">
-        <v>12.73644631354677</v>
+        <v>18.29264259120612</v>
       </c>
       <c r="N13">
-        <v>16.3512869407677</v>
+        <v>25.3744468591895</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.67067158377906</v>
+        <v>19.43921655890106</v>
       </c>
       <c r="C14">
-        <v>9.751067832534481</v>
+        <v>6.957770348093876</v>
       </c>
       <c r="D14">
-        <v>2.271703046559696</v>
+        <v>4.382010186216693</v>
       </c>
       <c r="E14">
-        <v>5.821238799327775</v>
+        <v>10.37687579486663</v>
       </c>
       <c r="F14">
-        <v>38.88741416456416</v>
+        <v>51.61756534168421</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>26.03815724587901</v>
+        <v>37.17349029455585</v>
       </c>
       <c r="J14">
-        <v>5.771023352707488</v>
+        <v>9.931408851214679</v>
       </c>
       <c r="K14">
-        <v>15.80781221763205</v>
+        <v>17.31431337225077</v>
       </c>
       <c r="L14">
-        <v>7.186467060674062</v>
+        <v>11.75689512439107</v>
       </c>
       <c r="M14">
-        <v>12.67934614851567</v>
+        <v>18.28964671033751</v>
       </c>
       <c r="N14">
-        <v>16.38420649914023</v>
+        <v>25.38360807465348</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.58152673955869</v>
+        <v>19.42268898381569</v>
       </c>
       <c r="C15">
-        <v>9.692921015642456</v>
+        <v>6.940761376448271</v>
       </c>
       <c r="D15">
-        <v>2.264671990766113</v>
+        <v>4.381778827027668</v>
       </c>
       <c r="E15">
-        <v>5.821524301890451</v>
+        <v>10.37814178586211</v>
       </c>
       <c r="F15">
-        <v>38.8124668791071</v>
+        <v>51.61466505642226</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>26.01417875284474</v>
+        <v>37.17644414619363</v>
       </c>
       <c r="J15">
-        <v>5.77505545651124</v>
+        <v>9.932703860200631</v>
       </c>
       <c r="K15">
-        <v>15.73626210526034</v>
+        <v>17.30249165099556</v>
       </c>
       <c r="L15">
-        <v>7.177808330374792</v>
+        <v>11.75785569495334</v>
       </c>
       <c r="M15">
-        <v>12.6443994724971</v>
+        <v>18.2878654838093</v>
       </c>
       <c r="N15">
-        <v>16.40445945869083</v>
+        <v>25.38925679461286</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.06611016855155</v>
+        <v>19.32894162471225</v>
       </c>
       <c r="C16">
-        <v>9.355144873912218</v>
+        <v>6.843017979629059</v>
       </c>
       <c r="D16">
-        <v>2.224244053623168</v>
+        <v>4.380563995418235</v>
       </c>
       <c r="E16">
-        <v>5.823565364908837</v>
+        <v>10.38558542765721</v>
       </c>
       <c r="F16">
-        <v>38.38996911791931</v>
+        <v>51.60065014585351</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>25.88218363277328</v>
+        <v>37.19497899520998</v>
       </c>
       <c r="J16">
-        <v>5.798324716152661</v>
+        <v>9.940244878921968</v>
       </c>
       <c r="K16">
-        <v>15.32329222734247</v>
+        <v>17.23565860850166</v>
       </c>
       <c r="L16">
-        <v>7.129053995446282</v>
+        <v>11.76376814415648</v>
       </c>
       <c r="M16">
-        <v>12.44460484538801</v>
+        <v>18.27848531293033</v>
       </c>
       <c r="N16">
-        <v>16.52186670927012</v>
+        <v>25.4221980732376</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.74590043790954</v>
+        <v>19.27231497225583</v>
       </c>
       <c r="C17">
-        <v>9.143808791914577</v>
+        <v>6.782847173293567</v>
       </c>
       <c r="D17">
-        <v>2.199325329777978</v>
+        <v>4.379918201730164</v>
       </c>
       <c r="E17">
-        <v>5.825174602157239</v>
+        <v>10.39032060297958</v>
       </c>
       <c r="F17">
-        <v>38.13696359527514</v>
+        <v>51.59437995950197</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>25.80593973581624</v>
+        <v>37.2077839098758</v>
       </c>
       <c r="J17">
-        <v>5.812749008417081</v>
+        <v>9.944978220494379</v>
       </c>
       <c r="K17">
-        <v>15.06737284499899</v>
+        <v>17.19548765523165</v>
       </c>
       <c r="L17">
-        <v>7.099912800877394</v>
+        <v>11.76775959471199</v>
       </c>
       <c r="M17">
-        <v>12.32249052264545</v>
+        <v>18.27347137202423</v>
       </c>
       <c r="N17">
-        <v>16.59507786213106</v>
+        <v>25.44291621532</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.56027221552044</v>
+        <v>19.2400787342735</v>
       </c>
       <c r="C18">
-        <v>9.020719232861465</v>
+        <v>6.74817576272838</v>
       </c>
       <c r="D18">
-        <v>2.184951269640898</v>
+        <v>4.379583478270386</v>
       </c>
       <c r="E18">
-        <v>5.82622980400996</v>
+        <v>10.39310628544875</v>
       </c>
       <c r="F18">
-        <v>37.99369112428862</v>
+        <v>51.59162981060214</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>25.76378481774652</v>
+        <v>37.21567605181363</v>
       </c>
       <c r="J18">
-        <v>5.821101910593309</v>
+        <v>9.947740189851654</v>
       </c>
       <c r="K18">
-        <v>14.91925173716444</v>
+        <v>17.17269277518724</v>
       </c>
       <c r="L18">
-        <v>7.08343219252354</v>
+        <v>11.77018944882207</v>
       </c>
       <c r="M18">
-        <v>12.25243406686684</v>
+        <v>18.27086047903552</v>
       </c>
       <c r="N18">
-        <v>16.63761709467199</v>
+        <v>25.45502024692764</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.49717496116279</v>
+        <v>19.22922228505535</v>
       </c>
       <c r="C19">
-        <v>8.978777804294721</v>
+        <v>6.736427178039764</v>
       </c>
       <c r="D19">
-        <v>2.180077522468196</v>
+        <v>4.379476468981538</v>
       </c>
       <c r="E19">
-        <v>5.826609188868096</v>
+        <v>10.39406015303718</v>
       </c>
       <c r="F19">
-        <v>37.94556578312115</v>
+        <v>51.59084580845474</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>25.74979985298792</v>
+        <v>37.21843871854597</v>
       </c>
       <c r="J19">
-        <v>5.823939894568943</v>
+        <v>9.948682134051987</v>
       </c>
       <c r="K19">
-        <v>14.8689444400907</v>
+        <v>17.16502866665985</v>
       </c>
       <c r="L19">
-        <v>7.077900191858075</v>
+        <v>11.771035200105</v>
       </c>
       <c r="M19">
-        <v>12.22874653689261</v>
+        <v>18.2700234416843</v>
       </c>
       <c r="N19">
-        <v>16.65209352845151</v>
+        <v>25.45915068526267</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.78013820501496</v>
+        <v>19.2783086167574</v>
       </c>
       <c r="C20">
-        <v>9.1664642654838</v>
+        <v>6.789259269502487</v>
       </c>
       <c r="D20">
-        <v>2.201982304935901</v>
+        <v>4.379983150927555</v>
       </c>
       <c r="E20">
-        <v>5.824989846073486</v>
+        <v>10.38981010753275</v>
       </c>
       <c r="F20">
-        <v>38.16366313361566</v>
+        <v>51.59495882784313</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>25.81387933855274</v>
+        <v>37.20636625133235</v>
       </c>
       <c r="J20">
-        <v>5.811207711675327</v>
+        <v>9.944470264604496</v>
       </c>
       <c r="K20">
-        <v>15.09471200913246</v>
+        <v>17.19973192570812</v>
       </c>
       <c r="L20">
-        <v>7.102985850384687</v>
+        <v>11.76732082543852</v>
       </c>
       <c r="M20">
-        <v>12.33547144798321</v>
+        <v>18.27397687984118</v>
       </c>
       <c r="N20">
-        <v>16.58723977551814</v>
+        <v>25.44069133176807</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.71333757870895</v>
+        <v>19.44715873553915</v>
       </c>
       <c r="C21">
-        <v>9.77887089808633</v>
+        <v>6.965921331083602</v>
       </c>
       <c r="D21">
-        <v>2.275072182657038</v>
+        <v>4.382123086632999</v>
       </c>
       <c r="E21">
-        <v>5.821109118124442</v>
+        <v>10.3762720524517</v>
       </c>
       <c r="F21">
-        <v>38.92347799949361</v>
+        <v>51.6190021561811</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>26.0497528354121</v>
+        <v>37.17210227796018</v>
       </c>
       <c r="J21">
-        <v>5.769092673528458</v>
+        <v>9.930789975964711</v>
       </c>
       <c r="K21">
-        <v>15.84206969404117</v>
+        <v>17.31999813940711</v>
       </c>
       <c r="L21">
-        <v>7.190634524570994</v>
+        <v>11.7564417119112</v>
       </c>
       <c r="M21">
-        <v>12.69611191076885</v>
+        <v>18.29051545880882</v>
       </c>
       <c r="N21">
-        <v>16.37451868783084</v>
+        <v>25.38090944982922</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.30984865709652</v>
+        <v>19.56029380934061</v>
       </c>
       <c r="C22">
-        <v>10.16588704053971</v>
+        <v>7.080533147663258</v>
       </c>
       <c r="D22">
-        <v>2.322440054277604</v>
+        <v>4.383845078157124</v>
       </c>
       <c r="E22">
-        <v>5.819762716684187</v>
+        <v>10.36797485325247</v>
       </c>
       <c r="F22">
-        <v>39.44058662938782</v>
+        <v>51.6423191997156</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>26.21989340093868</v>
+        <v>37.15440282571188</v>
       </c>
       <c r="J22">
-        <v>5.742036969740253</v>
+        <v>9.922198710642984</v>
       </c>
       <c r="K22">
-        <v>16.3218470794653</v>
+        <v>17.40123903334488</v>
       </c>
       <c r="L22">
-        <v>7.250452093170636</v>
+        <v>11.75052165636802</v>
       </c>
       <c r="M22">
-        <v>12.93313777093504</v>
+        <v>18.30373637189117</v>
       </c>
       <c r="N22">
-        <v>16.23945106002398</v>
+        <v>25.34350448604346</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.99272138362044</v>
+        <v>19.49966639350919</v>
       </c>
       <c r="C23">
-        <v>9.960517192487622</v>
+        <v>7.019453654845566</v>
       </c>
       <c r="D23">
-        <v>2.297196682280168</v>
+        <v>4.382896601078717</v>
       </c>
       <c r="E23">
-        <v>5.820370614779438</v>
+        <v>10.37235296083552</v>
       </c>
       <c r="F23">
-        <v>39.16269295279353</v>
+        <v>51.6291799554829</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>26.12758141499024</v>
+        <v>37.16341987563317</v>
       </c>
       <c r="J23">
-        <v>5.756435898716293</v>
+        <v>9.926752136152531</v>
       </c>
       <c r="K23">
-        <v>16.06659063616769</v>
+        <v>17.35764382910229</v>
       </c>
       <c r="L23">
-        <v>7.218292672145904</v>
+        <v>11.75357260354872</v>
       </c>
       <c r="M23">
-        <v>12.80652353678406</v>
+        <v>18.29646039071248</v>
       </c>
       <c r="N23">
-        <v>16.31117009277201</v>
+        <v>25.36331596268077</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.76466408707674</v>
+        <v>19.27559789372868</v>
       </c>
       <c r="C24">
-        <v>9.156226681950072</v>
+        <v>6.786360601774534</v>
       </c>
       <c r="D24">
-        <v>2.200781235428925</v>
+        <v>4.379953673521015</v>
       </c>
       <c r="E24">
-        <v>5.825072969667441</v>
+        <v>10.39004070512416</v>
       </c>
       <c r="F24">
-        <v>38.15158547569226</v>
+        <v>51.59469445890898</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>25.81028462476484</v>
+        <v>37.20700552243997</v>
       </c>
       <c r="J24">
-        <v>5.811904344107642</v>
+        <v>9.944699784636466</v>
       </c>
       <c r="K24">
-        <v>15.08235505001538</v>
+        <v>17.1978121553698</v>
       </c>
       <c r="L24">
-        <v>7.101595674581413</v>
+        <v>11.76751877211005</v>
       </c>
       <c r="M24">
-        <v>12.32960230519983</v>
+        <v>18.27374749325335</v>
       </c>
       <c r="N24">
-        <v>16.59078197674356</v>
+        <v>25.44169660066271</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.3850396039118</v>
+        <v>19.04677360148703</v>
       </c>
       <c r="C25">
-        <v>8.229783193500186</v>
+        <v>6.532724494468948</v>
       </c>
       <c r="D25">
-        <v>2.095233813580999</v>
+        <v>4.378185079583277</v>
       </c>
       <c r="E25">
-        <v>5.83508347803607</v>
+        <v>10.41149692908399</v>
       </c>
       <c r="F25">
-        <v>37.14667583424774</v>
+        <v>51.5902391650743</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>25.53248279835669</v>
+        <v>37.27416923844829</v>
       </c>
       <c r="J25">
-        <v>5.873910614000216</v>
+        <v>9.965569712335915</v>
       </c>
       <c r="K25">
-        <v>13.98589990416597</v>
+        <v>17.0373394231509</v>
       </c>
       <c r="L25">
-        <v>6.986429040607867</v>
+        <v>11.78768994376049</v>
       </c>
       <c r="M25">
-        <v>11.82228478171156</v>
+        <v>18.25969360619345</v>
       </c>
       <c r="N25">
-        <v>16.90879011754143</v>
+        <v>25.5334140532648</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_106/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_106/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.89028610029903</v>
+        <v>15.32601181885288</v>
       </c>
       <c r="C2">
-        <v>6.345714281256337</v>
+        <v>7.494798080595695</v>
       </c>
       <c r="D2">
-        <v>4.378109198514716</v>
+        <v>2.016457401668231</v>
       </c>
       <c r="E2">
-        <v>10.4293559780028</v>
+        <v>5.846531899418657</v>
       </c>
       <c r="F2">
-        <v>51.6151704710622</v>
+        <v>36.47768740746917</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>37.34093666912207</v>
+        <v>25.37879626966209</v>
       </c>
       <c r="J2">
-        <v>9.982248629945566</v>
+        <v>5.921609186548745</v>
       </c>
       <c r="K2">
-        <v>16.93002746922939</v>
+        <v>13.15234493898954</v>
       </c>
       <c r="L2">
-        <v>11.80697136171512</v>
+        <v>6.910634731028842</v>
       </c>
       <c r="M2">
-        <v>18.258407811372</v>
+        <v>11.45660717750065</v>
       </c>
       <c r="N2">
-        <v>25.60714598775363</v>
+        <v>17.15658937652175</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.79215134195066</v>
+        <v>14.58445236598799</v>
       </c>
       <c r="C3">
-        <v>6.219701808648395</v>
+        <v>6.983031541482354</v>
       </c>
       <c r="D3">
-        <v>4.37883125161381</v>
+        <v>1.962600194154985</v>
       </c>
       <c r="E3">
-        <v>10.44275322461274</v>
+        <v>5.856759027075176</v>
       </c>
       <c r="F3">
-        <v>51.64967152507997</v>
+        <v>36.06706732142052</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>37.39697471182208</v>
+        <v>25.3041043928676</v>
       </c>
       <c r="J3">
-        <v>9.994377578097199</v>
+        <v>5.955289557294723</v>
       </c>
       <c r="K3">
-        <v>16.86433294254147</v>
+        <v>12.5737609437985</v>
       </c>
       <c r="L3">
-        <v>11.8228106336086</v>
+        <v>6.864775308090993</v>
       </c>
       <c r="M3">
-        <v>18.26322245136709</v>
+        <v>11.21468864199332</v>
       </c>
       <c r="N3">
-        <v>25.66099979129025</v>
+        <v>17.3328842842241</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.73593723290198</v>
+        <v>14.11877072326253</v>
       </c>
       <c r="C4">
-        <v>6.14299805608556</v>
+        <v>6.68390952789496</v>
       </c>
       <c r="D4">
-        <v>4.379658938110845</v>
+        <v>1.929380144655038</v>
       </c>
       <c r="E4">
-        <v>10.45162027778671</v>
+        <v>5.864233513176425</v>
       </c>
       <c r="F4">
-        <v>51.67953640869833</v>
+        <v>35.83549896800857</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>37.43669907214399</v>
+        <v>25.27203199082341</v>
       </c>
       <c r="J4">
-        <v>10.00223420293586</v>
+        <v>5.976662159995874</v>
       </c>
       <c r="K4">
-        <v>16.82754616970421</v>
+        <v>12.21292971599428</v>
       </c>
       <c r="L4">
-        <v>11.83390621630253</v>
+        <v>6.839294960535342</v>
       </c>
       <c r="M4">
-        <v>18.26899284731115</v>
+        <v>11.06942122115047</v>
       </c>
       <c r="N4">
-        <v>25.6959881038659</v>
+        <v>17.44521684167058</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.71406519095668</v>
+        <v>13.92665085817217</v>
       </c>
       <c r="C5">
-        <v>6.111956571874271</v>
+        <v>6.559324391827951</v>
       </c>
       <c r="D5">
-        <v>4.380093312408247</v>
+        <v>1.915818308307181</v>
       </c>
       <c r="E5">
-        <v>10.45539529493567</v>
+        <v>5.867576804224983</v>
       </c>
       <c r="F5">
-        <v>51.69388899746383</v>
+        <v>35.74621680474094</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>37.45422327083315</v>
+        <v>25.26232009304866</v>
       </c>
       <c r="J5">
-        <v>10.00553910023714</v>
+        <v>5.985549261954942</v>
       </c>
       <c r="K5">
-        <v>16.81345958079614</v>
+        <v>12.06469193920742</v>
       </c>
       <c r="L5">
-        <v>11.83877274431747</v>
+        <v>6.829578827084873</v>
       </c>
       <c r="M5">
-        <v>18.27205337791766</v>
+        <v>11.01110206572769</v>
       </c>
       <c r="N5">
-        <v>25.71073014396532</v>
+        <v>17.49201649223068</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.71049644733641</v>
+        <v>13.89461575940086</v>
       </c>
       <c r="C6">
-        <v>6.106816602165165</v>
+        <v>6.53847733811925</v>
       </c>
       <c r="D6">
-        <v>4.380171316279412</v>
+        <v>1.913565326439852</v>
       </c>
       <c r="E6">
-        <v>10.45603190733881</v>
+        <v>5.868149828458044</v>
       </c>
       <c r="F6">
-        <v>51.69640401798777</v>
+        <v>35.731695981157</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>37.45721382894674</v>
+        <v>25.26090705267767</v>
       </c>
       <c r="J6">
-        <v>10.00609412166712</v>
+        <v>5.987035781460041</v>
       </c>
       <c r="K6">
-        <v>16.81117545139066</v>
+        <v>12.04001150378078</v>
       </c>
       <c r="L6">
-        <v>11.8396016763351</v>
+        <v>6.828005587710215</v>
       </c>
       <c r="M6">
-        <v>18.27260443792619</v>
+        <v>11.00147289873323</v>
       </c>
       <c r="N6">
-        <v>25.71320730430454</v>
+        <v>17.49984923297476</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.73563804088588</v>
+        <v>14.11618887948112</v>
       </c>
       <c r="C7">
-        <v>6.142578482080134</v>
+        <v>6.68224010421797</v>
       </c>
       <c r="D7">
-        <v>4.379664402555584</v>
+        <v>1.929197324758803</v>
       </c>
       <c r="E7">
-        <v>10.45167053403384</v>
+        <v>5.864277401871464</v>
       </c>
       <c r="F7">
-        <v>51.67972113749506</v>
+        <v>35.83427441122845</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>37.43693000055282</v>
+        <v>25.27188756122283</v>
       </c>
       <c r="J7">
-        <v>10.00227835543138</v>
+        <v>5.976781291091028</v>
       </c>
       <c r="K7">
-        <v>16.82735251690923</v>
+        <v>12.21093507924045</v>
       </c>
       <c r="L7">
-        <v>11.83397045059724</v>
+        <v>6.839161231768336</v>
       </c>
       <c r="M7">
-        <v>18.26903125011816</v>
+        <v>11.06863107801505</v>
       </c>
       <c r="N7">
-        <v>25.69618495942849</v>
+        <v>17.44584386003708</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.85562267614436</v>
+        <v>15.07261274361754</v>
       </c>
       <c r="C8">
-        <v>6.302155016003608</v>
+        <v>7.314858302300821</v>
       </c>
       <c r="D8">
-        <v>4.378278657951051</v>
+        <v>1.997926697145887</v>
       </c>
       <c r="E8">
-        <v>10.43384253889242</v>
+        <v>5.849808260389238</v>
       </c>
       <c r="F8">
-        <v>51.62526453038225</v>
+        <v>36.33179103279677</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>37.35915468090465</v>
+        <v>25.35011471101564</v>
       </c>
       <c r="J8">
-        <v>9.986345907708712</v>
+        <v>5.933080502247362</v>
       </c>
       <c r="K8">
-        <v>16.906646528625</v>
+        <v>12.95412227699607</v>
       </c>
       <c r="L8">
-        <v>11.81214862646497</v>
+        <v>6.89426325946208</v>
       </c>
       <c r="M8">
-        <v>18.2594847135892</v>
+        <v>11.37254811131546</v>
       </c>
       <c r="N8">
-        <v>25.62531634961661</v>
+        <v>17.2165246013853</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.12205066372562</v>
+        <v>16.8568145134739</v>
       </c>
       <c r="C9">
-        <v>6.61831654004658</v>
+        <v>8.549927820350959</v>
       </c>
       <c r="D9">
-        <v>4.378591483282995</v>
+        <v>2.130974335858028</v>
       </c>
       <c r="E9">
-        <v>10.4039503287904</v>
+        <v>5.831067325988004</v>
       </c>
       <c r="F9">
-        <v>51.58735985544737</v>
+        <v>37.47397581733053</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>37.24885406759974</v>
+        <v>25.61785760101436</v>
       </c>
       <c r="J9">
-        <v>9.958336656971497</v>
+        <v>5.852717341888231</v>
       </c>
       <c r="K9">
-        <v>17.0897481350354</v>
+        <v>14.35961474739366</v>
       </c>
       <c r="L9">
-        <v>11.78020842412788</v>
+        <v>7.02381081742783</v>
       </c>
       <c r="M9">
-        <v>18.26302487900165</v>
+        <v>11.99208052871543</v>
       </c>
       <c r="N9">
-        <v>25.50155787286486</v>
+        <v>16.79952239795141</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.33544772260257</v>
+        <v>18.1024496749039</v>
       </c>
       <c r="C10">
-        <v>6.849874373355082</v>
+        <v>9.379053276502605</v>
       </c>
       <c r="D10">
-        <v>4.380642648630129</v>
+        <v>2.22708170266388</v>
       </c>
       <c r="E10">
-        <v>10.38505352178071</v>
+        <v>5.823399418530832</v>
       </c>
       <c r="F10">
-        <v>51.60148158303893</v>
+        <v>38.41914526807197</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>37.1935892917588</v>
+        <v>25.89111663851743</v>
       </c>
       <c r="J10">
-        <v>9.939710114260906</v>
+        <v>5.796686340010519</v>
       </c>
       <c r="K10">
-        <v>17.24028403889941</v>
+        <v>15.35236754090904</v>
       </c>
       <c r="L10">
-        <v>11.76333084699563</v>
+        <v>7.132417350746291</v>
       </c>
       <c r="M10">
-        <v>18.27909436816203</v>
+        <v>12.45856236310792</v>
       </c>
       <c r="N10">
-        <v>25.41985938350777</v>
+        <v>16.51357148100034</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.43605230865415</v>
+        <v>18.65364215235973</v>
       </c>
       <c r="C11">
-        <v>6.954518858086259</v>
+        <v>9.739965879062058</v>
       </c>
       <c r="D11">
-        <v>4.381965514925262</v>
+        <v>2.270359027850532</v>
       </c>
       <c r="E11">
-        <v>10.37711716149404</v>
+        <v>5.821291816815779</v>
       </c>
       <c r="F11">
-        <v>51.61700064356369</v>
+        <v>38.87305471380435</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>37.1740489406305</v>
+        <v>26.03355057798865</v>
       </c>
       <c r="J11">
-        <v>9.931656033431729</v>
+        <v>5.771793795371249</v>
       </c>
       <c r="K11">
-        <v>17.31204920798101</v>
+        <v>15.79414117335167</v>
       </c>
       <c r="L11">
-        <v>11.75707723805251</v>
+        <v>7.184807885753074</v>
       </c>
       <c r="M11">
-        <v>18.2893028902167</v>
+        <v>12.67266154160807</v>
       </c>
       <c r="N11">
-        <v>25.38468607534728</v>
+        <v>16.38807423199548</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.47462864632362</v>
+        <v>18.86007226392337</v>
       </c>
       <c r="C12">
-        <v>6.994003238533258</v>
+        <v>9.874360681073366</v>
       </c>
       <c r="D12">
-        <v>4.382521985479924</v>
+        <v>2.286678624487994</v>
       </c>
       <c r="E12">
-        <v>10.37420634434596</v>
+        <v>5.820697382183083</v>
       </c>
       <c r="F12">
-        <v>51.62418216077611</v>
+        <v>39.04845544777702</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>37.1674547736263</v>
+        <v>26.09021900583214</v>
       </c>
       <c r="J12">
-        <v>9.928666127576248</v>
+        <v>5.762448405906061</v>
       </c>
       <c r="K12">
-        <v>17.33967956459617</v>
+        <v>15.95994758956941</v>
       </c>
       <c r="L12">
-        <v>11.75491335339758</v>
+        <v>7.205081340063583</v>
       </c>
       <c r="M12">
-        <v>18.29358269226974</v>
+        <v>12.75396639928368</v>
       </c>
       <c r="N12">
-        <v>25.37165256437991</v>
+        <v>16.3412282659536</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.46629966647536</v>
+        <v>18.81571675441124</v>
       </c>
       <c r="C13">
-        <v>6.985506550202476</v>
+        <v>9.845516470658414</v>
       </c>
       <c r="D13">
-        <v>4.382399678309266</v>
+        <v>2.283167014762102</v>
       </c>
       <c r="E13">
-        <v>10.37482904358711</v>
+        <v>5.820816259049965</v>
       </c>
       <c r="F13">
-        <v>51.622577518626</v>
+        <v>39.01052223881899</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>37.16883912852362</v>
+        <v>26.07789092032377</v>
       </c>
       <c r="J13">
-        <v>9.929307393299334</v>
+        <v>5.764457586742847</v>
       </c>
       <c r="K13">
-        <v>17.33370895644383</v>
+        <v>15.9243050581917</v>
       </c>
       <c r="L13">
-        <v>11.75537031116328</v>
+        <v>7.200695688513219</v>
       </c>
       <c r="M13">
-        <v>18.29264259120612</v>
+        <v>12.73644631354673</v>
       </c>
       <c r="N13">
-        <v>25.3744468591895</v>
+        <v>16.3512869407677</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.43921655890106</v>
+        <v>18.67067158377905</v>
       </c>
       <c r="C14">
-        <v>6.957770348093876</v>
+        <v>9.751067832534481</v>
       </c>
       <c r="D14">
-        <v>4.382010186216693</v>
+        <v>2.271703046559774</v>
       </c>
       <c r="E14">
-        <v>10.37687579486663</v>
+        <v>5.821238799327829</v>
       </c>
       <c r="F14">
-        <v>51.61756534168421</v>
+        <v>38.8874141645642</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>37.17349029455585</v>
+        <v>26.03815724587901</v>
       </c>
       <c r="J14">
-        <v>9.931408851214679</v>
+        <v>5.771023352707452</v>
       </c>
       <c r="K14">
-        <v>17.31431337225077</v>
+        <v>15.80781221763204</v>
       </c>
       <c r="L14">
-        <v>11.75689512439107</v>
+        <v>7.186467060674097</v>
       </c>
       <c r="M14">
-        <v>18.28964671033751</v>
+        <v>12.67934614851566</v>
       </c>
       <c r="N14">
-        <v>25.38360807465348</v>
+        <v>16.38420649914027</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.42268898381569</v>
+        <v>18.58152673955871</v>
       </c>
       <c r="C15">
-        <v>6.940761376448271</v>
+        <v>9.692921015642373</v>
       </c>
       <c r="D15">
-        <v>4.381778827027668</v>
+        <v>2.264671990766049</v>
       </c>
       <c r="E15">
-        <v>10.37814178586211</v>
+        <v>5.821524301890519</v>
       </c>
       <c r="F15">
-        <v>51.61466505642226</v>
+        <v>38.8124668791074</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>37.17644414619363</v>
+        <v>26.01417875284499</v>
       </c>
       <c r="J15">
-        <v>9.932703860200631</v>
+        <v>5.775055456511243</v>
       </c>
       <c r="K15">
-        <v>17.30249165099556</v>
+        <v>15.73626210526036</v>
       </c>
       <c r="L15">
-        <v>11.75785569495334</v>
+        <v>7.177808330374834</v>
       </c>
       <c r="M15">
-        <v>18.2878654838093</v>
+        <v>12.64439947249718</v>
       </c>
       <c r="N15">
-        <v>25.38925679461286</v>
+        <v>16.40445945869099</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.32894162471225</v>
+        <v>18.0661101685516</v>
       </c>
       <c r="C16">
-        <v>6.843017979629059</v>
+        <v>9.355144873912177</v>
       </c>
       <c r="D16">
-        <v>4.380563995418235</v>
+        <v>2.224244053622983</v>
       </c>
       <c r="E16">
-        <v>10.38558542765721</v>
+        <v>5.823565364908711</v>
       </c>
       <c r="F16">
-        <v>51.60065014585351</v>
+        <v>38.38996911791936</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>37.19497899520998</v>
+        <v>25.8821836327734</v>
       </c>
       <c r="J16">
-        <v>9.940244878921968</v>
+        <v>5.798324716152726</v>
       </c>
       <c r="K16">
-        <v>17.23565860850166</v>
+        <v>15.32329222734247</v>
       </c>
       <c r="L16">
-        <v>11.76376814415648</v>
+        <v>7.129053995446228</v>
       </c>
       <c r="M16">
-        <v>18.27848531293033</v>
+        <v>12.444604845388</v>
       </c>
       <c r="N16">
-        <v>25.4221980732376</v>
+        <v>16.52186670927021</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.27231497225583</v>
+        <v>17.74590043790953</v>
       </c>
       <c r="C17">
-        <v>6.782847173293567</v>
+        <v>9.14380879191452</v>
       </c>
       <c r="D17">
-        <v>4.379918201730164</v>
+        <v>2.199325329777924</v>
       </c>
       <c r="E17">
-        <v>10.39032060297958</v>
+        <v>5.825174602157244</v>
       </c>
       <c r="F17">
-        <v>51.59437995950197</v>
+        <v>38.13696359527504</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>37.2077839098758</v>
+        <v>25.8059397358161</v>
       </c>
       <c r="J17">
-        <v>9.944978220494379</v>
+        <v>5.812749008417083</v>
       </c>
       <c r="K17">
-        <v>17.19548765523165</v>
+        <v>15.06737284499898</v>
       </c>
       <c r="L17">
-        <v>11.76775959471199</v>
+        <v>7.099912800877448</v>
       </c>
       <c r="M17">
-        <v>18.27347137202423</v>
+        <v>12.32249052264543</v>
       </c>
       <c r="N17">
-        <v>25.44291621532</v>
+        <v>16.59507786213098</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.2400787342735</v>
+        <v>17.5602722155204</v>
       </c>
       <c r="C18">
-        <v>6.74817576272838</v>
+        <v>9.020719232861456</v>
       </c>
       <c r="D18">
-        <v>4.379583478270386</v>
+        <v>2.184951269640957</v>
       </c>
       <c r="E18">
-        <v>10.39310628544875</v>
+        <v>5.82622980400996</v>
       </c>
       <c r="F18">
-        <v>51.59162981060214</v>
+        <v>37.9936911242883</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>37.21567605181363</v>
+        <v>25.76378481774621</v>
       </c>
       <c r="J18">
-        <v>9.947740189851654</v>
+        <v>5.821101910593277</v>
       </c>
       <c r="K18">
-        <v>17.17269277518724</v>
+        <v>14.9192517371644</v>
       </c>
       <c r="L18">
-        <v>11.77018944882207</v>
+        <v>7.08343219252356</v>
       </c>
       <c r="M18">
-        <v>18.27086047903552</v>
+        <v>12.25243406686676</v>
       </c>
       <c r="N18">
-        <v>25.45502024692764</v>
+        <v>16.63761709467177</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.22922228505535</v>
+        <v>17.49717496116281</v>
       </c>
       <c r="C19">
-        <v>6.736427178039764</v>
+        <v>8.97877780429466</v>
       </c>
       <c r="D19">
-        <v>4.379476468981538</v>
+        <v>2.180077522468096</v>
       </c>
       <c r="E19">
-        <v>10.39406015303718</v>
+        <v>5.826609188868033</v>
       </c>
       <c r="F19">
-        <v>51.59084580845474</v>
+        <v>37.94556578312131</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>37.21843871854597</v>
+        <v>25.74979985298803</v>
       </c>
       <c r="J19">
-        <v>9.948682134051987</v>
+        <v>5.823939894568913</v>
       </c>
       <c r="K19">
-        <v>17.16502866665985</v>
+        <v>14.86894444009074</v>
       </c>
       <c r="L19">
-        <v>11.771035200105</v>
+        <v>7.077900191858079</v>
       </c>
       <c r="M19">
-        <v>18.2700234416843</v>
+        <v>12.2287465368926</v>
       </c>
       <c r="N19">
-        <v>25.45915068526267</v>
+        <v>16.65209352845159</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.2783086167574</v>
+        <v>17.78013820501498</v>
       </c>
       <c r="C20">
-        <v>6.789259269502487</v>
+        <v>9.166464265483791</v>
       </c>
       <c r="D20">
-        <v>4.379983150927555</v>
+        <v>2.201982304935877</v>
       </c>
       <c r="E20">
-        <v>10.38981010753275</v>
+        <v>5.824989846073547</v>
       </c>
       <c r="F20">
-        <v>51.59495882784313</v>
+        <v>38.16366313361583</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>37.20636625133235</v>
+        <v>25.8138793385528</v>
       </c>
       <c r="J20">
-        <v>9.944470264604496</v>
+        <v>5.811207711675391</v>
       </c>
       <c r="K20">
-        <v>17.19973192570812</v>
+        <v>15.09471200913247</v>
       </c>
       <c r="L20">
-        <v>11.76732082543852</v>
+        <v>7.102985850384772</v>
       </c>
       <c r="M20">
-        <v>18.27397687984118</v>
+        <v>12.33547144798325</v>
       </c>
       <c r="N20">
-        <v>25.44069133176807</v>
+        <v>16.58723977551818</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.44715873553915</v>
+        <v>18.71333757870896</v>
       </c>
       <c r="C21">
-        <v>6.965921331083602</v>
+        <v>9.778870898086311</v>
       </c>
       <c r="D21">
-        <v>4.382123086632999</v>
+        <v>2.275072182657155</v>
       </c>
       <c r="E21">
-        <v>10.3762720524517</v>
+        <v>5.821109118124563</v>
       </c>
       <c r="F21">
-        <v>51.6190021561811</v>
+        <v>38.92347799949376</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>37.17210227796018</v>
+        <v>26.04975283541215</v>
       </c>
       <c r="J21">
-        <v>9.930789975964711</v>
+        <v>5.76909267352846</v>
       </c>
       <c r="K21">
-        <v>17.31999813940711</v>
+        <v>15.84206969404119</v>
       </c>
       <c r="L21">
-        <v>11.7564417119112</v>
+        <v>7.190634524571042</v>
       </c>
       <c r="M21">
-        <v>18.29051545880882</v>
+        <v>12.69611191076889</v>
       </c>
       <c r="N21">
-        <v>25.38090944982922</v>
+        <v>16.37451868783086</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.56029380934061</v>
+        <v>19.30984865709652</v>
       </c>
       <c r="C22">
-        <v>7.080533147663258</v>
+        <v>10.16588704053958</v>
       </c>
       <c r="D22">
-        <v>4.383845078157124</v>
+        <v>2.322440054277509</v>
       </c>
       <c r="E22">
-        <v>10.36797485325247</v>
+        <v>5.819762716684063</v>
       </c>
       <c r="F22">
-        <v>51.6423191997156</v>
+        <v>39.44058662938792</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>37.15440282571188</v>
+        <v>26.21989340093877</v>
       </c>
       <c r="J22">
-        <v>9.922198710642984</v>
+        <v>5.742036969740257</v>
       </c>
       <c r="K22">
-        <v>17.40123903334488</v>
+        <v>16.32184707946532</v>
       </c>
       <c r="L22">
-        <v>11.75052165636802</v>
+        <v>7.250452093170669</v>
       </c>
       <c r="M22">
-        <v>18.30373637189117</v>
+        <v>12.93313777093506</v>
       </c>
       <c r="N22">
-        <v>25.34350448604346</v>
+        <v>16.23945106002412</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.49966639350919</v>
+        <v>18.99272138362044</v>
       </c>
       <c r="C23">
-        <v>7.019453654845566</v>
+        <v>9.960517192487655</v>
       </c>
       <c r="D23">
-        <v>4.382896601078717</v>
+        <v>2.297196682280201</v>
       </c>
       <c r="E23">
-        <v>10.37235296083552</v>
+        <v>5.8203706147795</v>
       </c>
       <c r="F23">
-        <v>51.6291799554829</v>
+        <v>39.16269295279352</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>37.16341987563317</v>
+        <v>26.12758141499016</v>
       </c>
       <c r="J23">
-        <v>9.926752136152531</v>
+        <v>5.756435898716292</v>
       </c>
       <c r="K23">
-        <v>17.35764382910229</v>
+        <v>16.06659063616767</v>
       </c>
       <c r="L23">
-        <v>11.75357260354872</v>
+        <v>7.218292672145905</v>
       </c>
       <c r="M23">
-        <v>18.29646039071248</v>
+        <v>12.80652353678403</v>
       </c>
       <c r="N23">
-        <v>25.36331596268077</v>
+        <v>16.31117009277205</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.27559789372868</v>
+        <v>17.76466408707674</v>
       </c>
       <c r="C24">
-        <v>6.786360601774534</v>
+        <v>9.156226681950038</v>
       </c>
       <c r="D24">
-        <v>4.379953673521015</v>
+        <v>2.200781235428849</v>
       </c>
       <c r="E24">
-        <v>10.39004070512416</v>
+        <v>5.825072969667568</v>
       </c>
       <c r="F24">
-        <v>51.59469445890898</v>
+        <v>38.15158547569234</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>37.20700552243997</v>
+        <v>25.81028462476495</v>
       </c>
       <c r="J24">
-        <v>9.944699784636466</v>
+        <v>5.811904344107742</v>
       </c>
       <c r="K24">
-        <v>17.1978121553698</v>
+        <v>15.08235505001538</v>
       </c>
       <c r="L24">
-        <v>11.76751877211005</v>
+        <v>7.101595674581452</v>
       </c>
       <c r="M24">
-        <v>18.27374749325335</v>
+        <v>12.32960230519989</v>
       </c>
       <c r="N24">
-        <v>25.44169660066271</v>
+        <v>16.59078197674362</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.04677360148703</v>
+        <v>16.38503960391179</v>
       </c>
       <c r="C25">
-        <v>6.532724494468948</v>
+        <v>8.229783193500092</v>
       </c>
       <c r="D25">
-        <v>4.378185079583277</v>
+        <v>2.095233813580863</v>
       </c>
       <c r="E25">
-        <v>10.41149692908399</v>
+        <v>5.83508347803595</v>
       </c>
       <c r="F25">
-        <v>51.5902391650743</v>
+        <v>37.14667583424765</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>37.27416923844829</v>
+        <v>25.53248279835661</v>
       </c>
       <c r="J25">
-        <v>9.965569712335915</v>
+        <v>5.873910614000219</v>
       </c>
       <c r="K25">
-        <v>17.0373394231509</v>
+        <v>13.98589990416597</v>
       </c>
       <c r="L25">
-        <v>11.78768994376049</v>
+        <v>6.98642904060782</v>
       </c>
       <c r="M25">
-        <v>18.25969360619345</v>
+        <v>11.82228478171152</v>
       </c>
       <c r="N25">
-        <v>25.5334140532648</v>
+        <v>16.90879011754139</v>
       </c>
       <c r="O25">
         <v>0</v>
